--- a/projects/cs2200-project-1/microcode.xlsx
+++ b/projects/cs2200-project-1/microcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruh\Documents\GT\Fall 2023\CS_2200\projects\cs2200-project-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06982082-97C5-442F-88B2-49096A1E899F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA2FDF9-87A0-489F-B994-7ABB4855684C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="108">
   <si>
     <t>Index</t>
   </si>
@@ -392,12 +392,6 @@
     <t>bgt2</t>
   </si>
   <si>
-    <t>bgt3</t>
-  </si>
-  <si>
-    <t>bgt4</t>
-  </si>
-  <si>
     <t>or1</t>
   </si>
   <si>
@@ -414,6 +408,9 @@
   </si>
   <si>
     <t>24</t>
+  </si>
+  <si>
+    <t>beg3.5</t>
   </si>
 </sst>
 </file>
@@ -671,7 +668,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -780,12 +777,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1046,9 +1058,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP997"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomLeft" activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -3106,7 +3118,7 @@
       </c>
     </row>
     <row r="22" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A22" s="40">
+      <c r="A22" s="4">
         <f>A21+1</f>
         <v>20</v>
       </c>
@@ -3203,7 +3215,7 @@
       </c>
     </row>
     <row r="23" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A23" s="40">
+      <c r="A23" s="4">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
@@ -3300,7 +3312,7 @@
       </c>
     </row>
     <row r="24" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A24" s="40">
+      <c r="A24" s="4">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
@@ -3397,21 +3409,21 @@
       </c>
     </row>
     <row r="25" spans="1:32" ht="13.8" customHeight="1">
-      <c r="A25" s="40">
+      <c r="A25" s="4">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="C25" s="2">
         <v>0</v>
       </c>
       <c r="D25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
@@ -3423,8 +3435,8 @@
         <v>0</v>
       </c>
       <c r="I25" s="5">
-        <f t="shared" si="1"/>
-        <v>24</v>
+        <f t="shared" ref="I25:I45" si="4">BIN2DEC(_xlfn.CONCAT(C25:H25))</f>
+        <v>0</v>
       </c>
       <c r="J25" s="2">
         <v>0</v>
@@ -3439,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="N25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" s="2">
         <v>0</v>
@@ -3454,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="S25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25" s="2">
         <v>0</v>
@@ -3489,17 +3501,17 @@
       <c r="AD25" s="4"/>
       <c r="AE25" s="4"/>
       <c r="AF25" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>2008418</v>
+        <f t="shared" ref="AF25:AF45" si="5">_xlfn.CONCAT(     BIN2HEX(_xlfn.CONCAT(AC25, AB25),1),     BIN2HEX(_xlfn.CONCAT(AA25,Z25,Y25, X25),1),     BIN2HEX(_xlfn.CONCAT(W25,V25,U25, T25),1),     BIN2HEX(_xlfn.CONCAT(S25,R25,Q25, P25),1),     BIN2HEX(_xlfn.CONCAT(O25,N25, M25, L25),1),     BIN2HEX(_xlfn.CONCAT(K25,J25,C25,D25),1),     BIN2HEX(_xlfn.CONCAT(E25,F25,G25,H25),1) )</f>
+        <v>2000000</v>
       </c>
     </row>
     <row r="26" spans="1:32" ht="13.8" customHeight="1">
-      <c r="A26" s="40">
+      <c r="A26" s="4">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C26" s="2">
         <v>0</v>
@@ -3520,7 +3532,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="J26" s="2">
@@ -3536,10 +3548,10 @@
         <v>0</v>
       </c>
       <c r="N26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" s="2">
         <v>0</v>
@@ -3551,10 +3563,10 @@
         <v>0</v>
       </c>
       <c r="S26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26" s="2">
         <v>0</v>
@@ -3586,39 +3598,39 @@
       <c r="AD26" s="4"/>
       <c r="AE26" s="4"/>
       <c r="AF26" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>0010819</v>
+        <f t="shared" si="5"/>
+        <v>0008419</v>
       </c>
     </row>
     <row r="27" spans="1:32" ht="13.8" customHeight="1">
-      <c r="A27" s="40">
+      <c r="A27" s="4">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C27" s="2">
         <v>0</v>
       </c>
       <c r="D27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="2">
         <v>0</v>
       </c>
       <c r="G27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
       </c>
       <c r="I27" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>26</v>
       </c>
       <c r="J27" s="2">
         <v>0</v>
@@ -3630,16 +3642,16 @@
         <v>0</v>
       </c>
       <c r="M27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" s="2">
         <v>0</v>
       </c>
       <c r="O27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="2">
         <v>0</v>
@@ -3651,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U27" s="2">
         <v>0</v>
@@ -3677,45 +3689,45 @@
       <c r="AB27" s="2">
         <v>0</v>
       </c>
-      <c r="AC27" s="2">
+      <c r="AC27" s="20">
         <v>0</v>
       </c>
       <c r="AD27" s="4"/>
       <c r="AE27" s="4"/>
       <c r="AF27" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>0001200</v>
+        <f t="shared" si="5"/>
+        <v>001081A</v>
       </c>
     </row>
     <row r="28" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A28" s="40">
+      <c r="A28" s="4">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C28" s="2">
         <v>0</v>
       </c>
       <c r="D28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" s="2">
         <v>0</v>
       </c>
       <c r="G28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" s="5">
-        <f>BIN2DEC(_xlfn.CONCAT(C28:H28))</f>
-        <v>27</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="J28" s="2">
         <v>0</v>
@@ -3724,19 +3736,19 @@
         <v>0</v>
       </c>
       <c r="L28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" s="2">
         <v>0</v>
       </c>
       <c r="N28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" s="2">
         <v>0</v>
       </c>
       <c r="P28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28" s="2">
         <v>0</v>
@@ -3754,13 +3766,13 @@
         <v>0</v>
       </c>
       <c r="V28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W28" s="2">
         <v>0</v>
       </c>
       <c r="X28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y28" s="2">
         <v>0</v>
@@ -3774,35 +3786,35 @@
       <c r="AB28" s="2">
         <v>0</v>
       </c>
-      <c r="AC28" s="18">
+      <c r="AC28" s="2">
         <v>0</v>
       </c>
       <c r="AD28" s="4"/>
       <c r="AE28" s="4"/>
       <c r="AF28" s="7" t="str">
-        <f>_xlfn.CONCAT(     BIN2HEX(_xlfn.CONCAT(AC28, AB28),1),     BIN2HEX(_xlfn.CONCAT(AA28,Z28,Y28, X28),1),     BIN2HEX(_xlfn.CONCAT(W28,V28,U28, T28),1),     BIN2HEX(_xlfn.CONCAT(S28,R28,Q28, P28),1),     BIN2HEX(_xlfn.CONCAT(O28,N28, M28, L28),1),     BIN2HEX(_xlfn.CONCAT(K28,J28,C28,D28),1),     BIN2HEX(_xlfn.CONCAT(E28,F28,G28,H28),1) )</f>
-        <v>014041B</v>
+        <f t="shared" si="5"/>
+        <v>0001100</v>
       </c>
     </row>
     <row r="29" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A29" s="40">
+      <c r="A29" s="4">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C29" s="2">
         <v>0</v>
       </c>
       <c r="D29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="2">
         <v>0</v>
@@ -3811,11 +3823,11 @@
         <v>0</v>
       </c>
       <c r="I29" s="5">
-        <f>BIN2DEC(_xlfn.CONCAT(C29:H29))</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>28</v>
       </c>
       <c r="J29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="2">
         <v>0</v>
@@ -3827,13 +3839,13 @@
         <v>0</v>
       </c>
       <c r="N29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29" s="2">
         <v>0</v>
       </c>
       <c r="P29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="2">
         <v>0</v>
@@ -3851,13 +3863,13 @@
         <v>0</v>
       </c>
       <c r="V29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="2">
         <v>0</v>
       </c>
       <c r="X29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y29" s="2">
         <v>0</v>
@@ -3877,29 +3889,29 @@
       <c r="AD29" s="4"/>
       <c r="AE29" s="4"/>
       <c r="AF29" s="7" t="str">
-        <f>_xlfn.CONCAT(     BIN2HEX(_xlfn.CONCAT(AC29, AB29),1),     BIN2HEX(_xlfn.CONCAT(AA29,Z29,Y29, X29),1),     BIN2HEX(_xlfn.CONCAT(W29,V29,U29, T29),1),     BIN2HEX(_xlfn.CONCAT(S29,R29,Q29, P29),1),     BIN2HEX(_xlfn.CONCAT(O29,N29, M29, L29),1),     BIN2HEX(_xlfn.CONCAT(K29,J29,C29,D29),1),     BIN2HEX(_xlfn.CONCAT(E29,F29,G29,H29),1) )</f>
-        <v>0001040</v>
+        <f t="shared" si="5"/>
+        <v>014041C</v>
       </c>
     </row>
     <row r="30" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A30" s="40">
+      <c r="A30" s="4">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C30" s="2">
         <v>0</v>
       </c>
       <c r="D30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" s="2">
         <v>0</v>
@@ -3908,11 +3920,11 @@
         <v>0</v>
       </c>
       <c r="I30" s="5">
-        <f>BIN2DEC(_xlfn.CONCAT(C30:H30))</f>
-        <v>28</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="J30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="2">
         <v>0</v>
@@ -3930,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30" s="2">
         <v>0</v>
@@ -3974,17 +3986,17 @@
       <c r="AD30" s="4"/>
       <c r="AE30" s="4"/>
       <c r="AF30" s="7" t="str">
-        <f>_xlfn.CONCAT(     BIN2HEX(_xlfn.CONCAT(AC30, AB30),1),     BIN2HEX(_xlfn.CONCAT(AA30,Z30,Y30, X30),1),     BIN2HEX(_xlfn.CONCAT(W30,V30,U30, T30),1),     BIN2HEX(_xlfn.CONCAT(S30,R30,Q30, P30),1),     BIN2HEX(_xlfn.CONCAT(O30,N30, M30, L30),1),     BIN2HEX(_xlfn.CONCAT(K30,J30,C30,D30),1),     BIN2HEX(_xlfn.CONCAT(E30,F30,G30,H30),1) )</f>
-        <v>000001C</v>
+        <f t="shared" si="5"/>
+        <v>0001040</v>
       </c>
     </row>
-    <row r="31" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A31" s="40">
+    <row r="31" spans="1:32" ht="14.4">
+      <c r="A31" s="4">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C31" s="2">
         <v>0</v>
@@ -3999,17 +4011,17 @@
         <v>1</v>
       </c>
       <c r="G31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="5">
-        <f>BIN2DEC(_xlfn.CONCAT(C31:H31))</f>
-        <v>30</v>
+        <f t="shared" si="4"/>
+        <v>29</v>
       </c>
       <c r="J31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="2">
         <v>0</v>
@@ -4036,7 +4048,7 @@
         <v>0</v>
       </c>
       <c r="S31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T31" s="2">
         <v>0</v>
@@ -4065,14 +4077,14 @@
       <c r="AB31" s="2">
         <v>0</v>
       </c>
-      <c r="AC31" s="20">
+      <c r="AC31" s="18">
         <v>0</v>
       </c>
       <c r="AD31" s="4"/>
       <c r="AE31" s="4"/>
       <c r="AF31" s="7" t="str">
-        <f>_xlfn.CONCAT(     BIN2HEX(_xlfn.CONCAT(AC31, AB31),1),     BIN2HEX(_xlfn.CONCAT(AA31,Z31,Y31, X31),1),     BIN2HEX(_xlfn.CONCAT(W31,V31,U31, T31),1),     BIN2HEX(_xlfn.CONCAT(S31,R31,Q31, P31),1),     BIN2HEX(_xlfn.CONCAT(O31,N31, M31, L31),1),     BIN2HEX(_xlfn.CONCAT(K31,J31,C31,D31),1),     BIN2HEX(_xlfn.CONCAT(E31,F31,G31,H31),1) )</f>
-        <v>000805E</v>
+        <f t="shared" si="5"/>
+        <v>000001D</v>
       </c>
     </row>
     <row r="32" spans="1:32" ht="14.25" customHeight="1">
@@ -4081,7 +4093,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C32" s="2">
         <v>0</v>
@@ -4102,7 +4114,7 @@
         <v>1</v>
       </c>
       <c r="I32" s="5">
-        <f>BIN2DEC(_xlfn.CONCAT(C32:H32))</f>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="J32" s="2">
@@ -4162,13 +4174,13 @@
       <c r="AB32" s="2">
         <v>0</v>
       </c>
-      <c r="AC32" s="18">
+      <c r="AC32" s="2">
         <v>0</v>
       </c>
       <c r="AD32" s="4"/>
       <c r="AE32" s="4"/>
       <c r="AF32" s="7" t="str">
-        <f>_xlfn.CONCAT(     BIN2HEX(_xlfn.CONCAT(AC32, AB32),1),     BIN2HEX(_xlfn.CONCAT(AA32,Z32,Y32, X32),1),     BIN2HEX(_xlfn.CONCAT(W32,V32,U32, T32),1),     BIN2HEX(_xlfn.CONCAT(S32,R32,Q32, P32),1),     BIN2HEX(_xlfn.CONCAT(O32,N32, M32, L32),1),     BIN2HEX(_xlfn.CONCAT(K32,J32,C32,D32),1),     BIN2HEX(_xlfn.CONCAT(E32,F32,G32,H32),1) )</f>
+        <f t="shared" si="5"/>
         <v>001005F</v>
       </c>
     </row>
@@ -4178,7 +4190,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -4199,17 +4211,17 @@
         <v>0</v>
       </c>
       <c r="I33" s="5">
-        <f>BIN2DEC(_xlfn.CONCAT(C33:H33))</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="J33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="2">
         <v>0</v>
       </c>
       <c r="L33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33" s="2">
         <v>0</v>
@@ -4230,13 +4242,13 @@
         <v>0</v>
       </c>
       <c r="S33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33" s="2">
         <v>0</v>
       </c>
       <c r="U33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V33" s="2">
         <v>0</v>
@@ -4245,13 +4257,13 @@
         <v>0</v>
       </c>
       <c r="X33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y33" s="2">
         <v>0</v>
       </c>
       <c r="Z33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA33" s="2">
         <v>0</v>
@@ -4259,26 +4271,26 @@
       <c r="AB33" s="2">
         <v>0</v>
       </c>
-      <c r="AC33" s="18">
+      <c r="AC33" s="2">
         <v>0</v>
       </c>
       <c r="AD33" s="4"/>
       <c r="AE33" s="4"/>
       <c r="AF33" s="7" t="str">
-        <f>_xlfn.CONCAT(     BIN2HEX(_xlfn.CONCAT(AC33, AB33),1),     BIN2HEX(_xlfn.CONCAT(AA33,Z33,Y33, X33),1),     BIN2HEX(_xlfn.CONCAT(W33,V33,U33, T33),1),     BIN2HEX(_xlfn.CONCAT(S33,R33,Q33, P33),1),     BIN2HEX(_xlfn.CONCAT(O33,N33, M33, L33),1),     BIN2HEX(_xlfn.CONCAT(K33,J33,C33,D33),1),     BIN2HEX(_xlfn.CONCAT(E33,F33,G33,H33),1) )</f>
-        <v>0420120</v>
+        <f t="shared" si="5"/>
+        <v>0108060</v>
       </c>
     </row>
-    <row r="34" spans="1:33" ht="14.25" customHeight="1">
+    <row r="34" spans="1:33" s="41" customFormat="1" ht="14.25" customHeight="1">
       <c r="A34" s="4">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" s="2">
         <v>0</v>
@@ -4293,11 +4305,11 @@
         <v>0</v>
       </c>
       <c r="H34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="5">
-        <f>BIN2DEC(_xlfn.CONCAT(C34:H34))</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>33</v>
       </c>
       <c r="J34" s="2">
         <v>0</v>
@@ -4306,7 +4318,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" s="2">
         <v>0</v>
@@ -4333,7 +4345,7 @@
         <v>0</v>
       </c>
       <c r="U34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V34" s="2">
         <v>0</v>
@@ -4348,7 +4360,7 @@
         <v>0</v>
       </c>
       <c r="Z34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA34" s="2">
         <v>0</v>
@@ -4356,14 +4368,14 @@
       <c r="AB34" s="2">
         <v>0</v>
       </c>
-      <c r="AC34" s="18">
-        <v>1</v>
+      <c r="AC34" s="2">
+        <v>0</v>
       </c>
       <c r="AD34" s="4"/>
       <c r="AE34" s="4"/>
-      <c r="AF34" s="7" t="str">
-        <f>_xlfn.CONCAT(     BIN2HEX(_xlfn.CONCAT(AC34, AB34),1),     BIN2HEX(_xlfn.CONCAT(AA34,Z34,Y34, X34),1),     BIN2HEX(_xlfn.CONCAT(W34,V34,U34, T34),1),     BIN2HEX(_xlfn.CONCAT(S34,R34,Q34, P34),1),     BIN2HEX(_xlfn.CONCAT(O34,N34, M34, L34),1),     BIN2HEX(_xlfn.CONCAT(K34,J34,C34,D34),1),     BIN2HEX(_xlfn.CONCAT(E34,F34,G34,H34),1) )</f>
-        <v>2000000</v>
+      <c r="AF34" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>0420121</v>
       </c>
     </row>
     <row r="35" spans="1:33" ht="14.25" customHeight="1">
@@ -4372,10 +4384,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" s="2">
         <v>0</v>
@@ -4387,14 +4399,14 @@
         <v>0</v>
       </c>
       <c r="G35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
       </c>
       <c r="I35" s="5">
-        <f>BIN2DEC(_xlfn.CONCAT(C35:H35))</f>
-        <v>34</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="J35" s="2">
         <v>0</v>
@@ -4412,7 +4424,7 @@
         <v>0</v>
       </c>
       <c r="O35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" s="2">
         <v>0</v>
@@ -4424,7 +4436,7 @@
         <v>0</v>
       </c>
       <c r="S35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T35" s="2">
         <v>0</v>
@@ -4453,14 +4465,14 @@
       <c r="AB35" s="2">
         <v>0</v>
       </c>
-      <c r="AC35" s="18">
-        <v>0</v>
+      <c r="AC35" s="2">
+        <v>1</v>
       </c>
       <c r="AD35" s="4"/>
       <c r="AE35" s="4"/>
       <c r="AF35" s="7" t="str">
-        <f>_xlfn.CONCAT(     BIN2HEX(_xlfn.CONCAT(AC35, AB35),1),     BIN2HEX(_xlfn.CONCAT(AA35,Z35,Y35, X35),1),     BIN2HEX(_xlfn.CONCAT(W35,V35,U35, T35),1),     BIN2HEX(_xlfn.CONCAT(S35,R35,Q35, P35),1),     BIN2HEX(_xlfn.CONCAT(O35,N35, M35, L35),1),     BIN2HEX(_xlfn.CONCAT(K35,J35,C35,D35),1),     BIN2HEX(_xlfn.CONCAT(E35,F35,G35,H35),1) )</f>
-        <v>0008822</v>
+        <f t="shared" si="5"/>
+        <v>2000000</v>
       </c>
     </row>
     <row r="36" spans="1:33" ht="14.25" customHeight="1">
@@ -4469,7 +4481,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
@@ -4490,7 +4502,7 @@
         <v>1</v>
       </c>
       <c r="I36" s="5">
-        <f>BIN2DEC(_xlfn.CONCAT(C36:H36))</f>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="J36" s="2">
@@ -4506,10 +4518,10 @@
         <v>0</v>
       </c>
       <c r="N36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" s="2">
         <v>0</v>
@@ -4521,10 +4533,10 @@
         <v>0</v>
       </c>
       <c r="S36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U36" s="2">
         <v>0</v>
@@ -4556,8 +4568,8 @@
       <c r="AD36" s="4"/>
       <c r="AE36" s="4"/>
       <c r="AF36" s="7" t="str">
-        <f>_xlfn.CONCAT(     BIN2HEX(_xlfn.CONCAT(AC36, AB36),1),     BIN2HEX(_xlfn.CONCAT(AA36,Z36,Y36, X36),1),     BIN2HEX(_xlfn.CONCAT(W36,V36,U36, T36),1),     BIN2HEX(_xlfn.CONCAT(S36,R36,Q36, P36),1),     BIN2HEX(_xlfn.CONCAT(O36,N36, M36, L36),1),     BIN2HEX(_xlfn.CONCAT(K36,J36,C36,D36),1),     BIN2HEX(_xlfn.CONCAT(E36,F36,G36,H36),1) )</f>
-        <v>0010423</v>
+        <f t="shared" si="5"/>
+        <v>0008823</v>
       </c>
     </row>
     <row r="37" spans="1:33" ht="14.25" customHeight="1">
@@ -4566,10 +4578,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" s="2">
         <v>0</v>
@@ -4578,7 +4590,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" s="2">
         <v>0</v>
@@ -4587,8 +4599,8 @@
         <v>0</v>
       </c>
       <c r="I37" s="5">
-        <f>BIN2DEC(_xlfn.CONCAT(C37:H37))</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>36</v>
       </c>
       <c r="J37" s="2">
         <v>0</v>
@@ -4597,13 +4609,13 @@
         <v>0</v>
       </c>
       <c r="L37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37" s="2">
         <v>0</v>
       </c>
       <c r="N37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O37" s="2">
         <v>0</v>
@@ -4621,13 +4633,13 @@
         <v>0</v>
       </c>
       <c r="T37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U37" s="2">
         <v>0</v>
       </c>
       <c r="V37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W37" s="2">
         <v>0</v>
@@ -4653,8 +4665,8 @@
       <c r="AD37" s="4"/>
       <c r="AE37" s="4"/>
       <c r="AF37" s="7" t="str">
-        <f>_xlfn.CONCAT(     BIN2HEX(_xlfn.CONCAT(AC37, AB37),1),     BIN2HEX(_xlfn.CONCAT(AA37,Z37,Y37, X37),1),     BIN2HEX(_xlfn.CONCAT(W37,V37,U37, T37),1),     BIN2HEX(_xlfn.CONCAT(S37,R37,Q37, P37),1),     BIN2HEX(_xlfn.CONCAT(O37,N37, M37, L37),1),     BIN2HEX(_xlfn.CONCAT(K37,J37,C37,D37),1),     BIN2HEX(_xlfn.CONCAT(E37,F37,G37,H37),1) )</f>
-        <v>0040100</v>
+        <f t="shared" si="5"/>
+        <v>0010424</v>
       </c>
     </row>
     <row r="38" spans="1:33" ht="14.25" customHeight="1">
@@ -4663,10 +4675,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" s="2">
         <v>0</v>
@@ -4675,26 +4687,26 @@
         <v>0</v>
       </c>
       <c r="F38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" s="2">
         <v>0</v>
       </c>
       <c r="H38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" s="5">
-        <f>BIN2DEC(_xlfn.CONCAT(C38:H38))</f>
-        <v>37</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="J38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="2">
         <v>0</v>
       </c>
       <c r="L38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38" s="2">
         <v>0</v>
@@ -4718,13 +4730,13 @@
         <v>0</v>
       </c>
       <c r="T38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U38" s="2">
         <v>0</v>
       </c>
       <c r="V38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W38" s="2">
         <v>0</v>
@@ -4744,14 +4756,14 @@
       <c r="AB38" s="2">
         <v>0</v>
       </c>
-      <c r="AC38" s="20">
+      <c r="AC38" s="18">
         <v>0</v>
       </c>
       <c r="AD38" s="4"/>
       <c r="AE38" s="4"/>
       <c r="AF38" s="7" t="str">
-        <f>_xlfn.CONCAT(     BIN2HEX(_xlfn.CONCAT(AC38, AB38),1),     BIN2HEX(_xlfn.CONCAT(AA38,Z38,Y38, X38),1),     BIN2HEX(_xlfn.CONCAT(W38,V38,U38, T38),1),     BIN2HEX(_xlfn.CONCAT(S38,R38,Q38, P38),1),     BIN2HEX(_xlfn.CONCAT(O38,N38, M38, L38),1),     BIN2HEX(_xlfn.CONCAT(K38,J38,C38,D38),1),     BIN2HEX(_xlfn.CONCAT(E38,F38,G38,H38),1) )</f>
-        <v>0010065</v>
+        <f t="shared" si="5"/>
+        <v>0040100</v>
       </c>
     </row>
     <row r="39" spans="1:33" ht="14.25" customHeight="1">
@@ -4760,7 +4772,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
@@ -4781,7 +4793,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="5">
-        <f>BIN2DEC(_xlfn.CONCAT(C39:H39))</f>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="J39" s="2">
@@ -4841,13 +4853,13 @@
       <c r="AB39" s="2">
         <v>0</v>
       </c>
-      <c r="AC39" s="18">
+      <c r="AC39" s="2">
         <v>0</v>
       </c>
       <c r="AD39" s="4"/>
       <c r="AE39" s="4"/>
       <c r="AF39" s="7" t="str">
-        <f>_xlfn.CONCAT(     BIN2HEX(_xlfn.CONCAT(AC39, AB39),1),     BIN2HEX(_xlfn.CONCAT(AA39,Z39,Y39, X39),1),     BIN2HEX(_xlfn.CONCAT(W39,V39,U39, T39),1),     BIN2HEX(_xlfn.CONCAT(S39,R39,Q39, P39),1),     BIN2HEX(_xlfn.CONCAT(O39,N39, M39, L39),1),     BIN2HEX(_xlfn.CONCAT(K39,J39,C39,D39),1),     BIN2HEX(_xlfn.CONCAT(E39,F39,G39,H39),1) )</f>
+        <f t="shared" si="5"/>
         <v>0008066</v>
       </c>
       <c r="AG39" s="4" t="s">
@@ -4860,7 +4872,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
@@ -4872,26 +4884,26 @@
         <v>0</v>
       </c>
       <c r="F40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" s="5">
-        <f>BIN2DEC(_xlfn.CONCAT(C40:H40))</f>
-        <v>39</v>
+        <f t="shared" si="4"/>
+        <v>32</v>
       </c>
       <c r="J40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" s="2">
         <v>0</v>
       </c>
       <c r="L40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40" s="2">
         <v>0</v>
@@ -4915,10 +4927,10 @@
         <v>0</v>
       </c>
       <c r="T40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V40" s="2">
         <v>0</v>
@@ -4927,13 +4939,13 @@
         <v>0</v>
       </c>
       <c r="X40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y40" s="2">
         <v>0</v>
       </c>
       <c r="Z40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA40" s="2">
         <v>0</v>
@@ -4941,24 +4953,22 @@
       <c r="AB40" s="2">
         <v>0</v>
       </c>
-      <c r="AC40" s="18">
+      <c r="AC40" s="2">
         <v>0</v>
       </c>
       <c r="AD40" s="4"/>
       <c r="AE40" s="4"/>
       <c r="AF40" s="7" t="str">
-        <f>_xlfn.CONCAT(     BIN2HEX(_xlfn.CONCAT(AC40, AB40),1),     BIN2HEX(_xlfn.CONCAT(AA40,Z40,Y40, X40),1),     BIN2HEX(_xlfn.CONCAT(W40,V40,U40, T40),1),     BIN2HEX(_xlfn.CONCAT(S40,R40,Q40, P40),1),     BIN2HEX(_xlfn.CONCAT(O40,N40, M40, L40),1),     BIN2HEX(_xlfn.CONCAT(K40,J40,C40,D40),1),     BIN2HEX(_xlfn.CONCAT(E40,F40,G40,H40),1) )</f>
-        <v>0420127</v>
+        <f t="shared" si="5"/>
+        <v>0110060</v>
       </c>
     </row>
-    <row r="41" spans="1:33" ht="14.25" customHeight="1">
+    <row r="41" spans="1:33" s="41" customFormat="1" ht="14.25" customHeight="1">
       <c r="A41" s="4">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>102</v>
-      </c>
+      <c r="B41" s="2"/>
       <c r="C41" s="2">
         <v>0</v>
       </c>
@@ -4978,7 +4988,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="5">
-        <f>BIN2DEC(_xlfn.CONCAT(C41:H41))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J41" s="2">
@@ -5038,14 +5048,14 @@
       <c r="AB41" s="2">
         <v>0</v>
       </c>
-      <c r="AC41" s="18">
-        <v>1</v>
+      <c r="AC41" s="2">
+        <v>0</v>
       </c>
       <c r="AD41" s="4"/>
       <c r="AE41" s="4"/>
-      <c r="AF41" s="7" t="str">
-        <f>_xlfn.CONCAT(     BIN2HEX(_xlfn.CONCAT(AC41, AB41),1),     BIN2HEX(_xlfn.CONCAT(AA41,Z41,Y41, X41),1),     BIN2HEX(_xlfn.CONCAT(W41,V41,U41, T41),1),     BIN2HEX(_xlfn.CONCAT(S41,R41,Q41, P41),1),     BIN2HEX(_xlfn.CONCAT(O41,N41, M41, L41),1),     BIN2HEX(_xlfn.CONCAT(K41,J41,C41,D41),1),     BIN2HEX(_xlfn.CONCAT(E41,F41,G41,H41),1) )</f>
-        <v>2000000</v>
+      <c r="AF41" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000</v>
       </c>
     </row>
     <row r="42" spans="1:33" ht="14.25" customHeight="1">
@@ -5053,17 +5063,15 @@
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="B42" s="2"/>
       <c r="C42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" s="2">
         <v>0</v>
       </c>
       <c r="E42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" s="2">
         <v>0</v>
@@ -5072,14 +5080,14 @@
         <v>0</v>
       </c>
       <c r="H42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" s="5">
-        <f>BIN2DEC(_xlfn.CONCAT(C42:H42))</f>
-        <v>41</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="J42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="2">
         <v>0</v>
@@ -5106,7 +5114,7 @@
         <v>0</v>
       </c>
       <c r="S42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T42" s="2">
         <v>0</v>
@@ -5121,7 +5129,7 @@
         <v>0</v>
       </c>
       <c r="X42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y42" s="2">
         <v>0</v>
@@ -5135,14 +5143,14 @@
       <c r="AB42" s="2">
         <v>0</v>
       </c>
-      <c r="AC42" s="23">
+      <c r="AC42" s="2">
         <v>0</v>
       </c>
       <c r="AD42" s="4"/>
       <c r="AE42" s="4"/>
       <c r="AF42" s="7" t="str">
-        <f>_xlfn.CONCAT(     BIN2HEX(_xlfn.CONCAT(AC42, AB42),1),     BIN2HEX(_xlfn.CONCAT(AA42,Z42,Y42, X42),1),     BIN2HEX(_xlfn.CONCAT(W42,V42,U42, T42),1),     BIN2HEX(_xlfn.CONCAT(S42,R42,Q42, P42),1),     BIN2HEX(_xlfn.CONCAT(O42,N42, M42, L42),1),     BIN2HEX(_xlfn.CONCAT(K42,J42,C42,D42),1),     BIN2HEX(_xlfn.CONCAT(E42,F42,G42,H42),1) )</f>
-        <v>0108069</v>
+        <f t="shared" si="5"/>
+        <v>0000000</v>
       </c>
     </row>
     <row r="43" spans="1:33" ht="14.25" customHeight="1">
@@ -5151,7 +5159,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
@@ -5172,7 +5180,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="5">
-        <f>BIN2DEC(_xlfn.CONCAT(C43:H43))</f>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="J43" s="2">
@@ -5203,10 +5211,10 @@
         <v>0</v>
       </c>
       <c r="S43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U43" s="2">
         <v>0</v>
@@ -5218,10 +5226,10 @@
         <v>0</v>
       </c>
       <c r="X43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z43" s="2">
         <v>0</v>
@@ -5238,8 +5246,8 @@
       <c r="AD43" s="4"/>
       <c r="AE43" s="4"/>
       <c r="AF43" s="7" t="str">
-        <f>_xlfn.CONCAT(     BIN2HEX(_xlfn.CONCAT(AC43, AB43),1),     BIN2HEX(_xlfn.CONCAT(AA43,Z43,Y43, X43),1),     BIN2HEX(_xlfn.CONCAT(W43,V43,U43, T43),1),     BIN2HEX(_xlfn.CONCAT(S43,R43,Q43, P43),1),     BIN2HEX(_xlfn.CONCAT(O43,N43, M43, L43),1),     BIN2HEX(_xlfn.CONCAT(K43,J43,C43,D43),1),     BIN2HEX(_xlfn.CONCAT(E43,F43,G43,H43),1) )</f>
-        <v>021006A</v>
+        <f t="shared" si="5"/>
+        <v>010806A</v>
       </c>
     </row>
     <row r="44" spans="1:33" ht="14.25" customHeight="1">
@@ -5248,32 +5256,32 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" s="2">
         <v>0</v>
       </c>
       <c r="E44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" s="2">
         <v>0</v>
       </c>
       <c r="G44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" s="5">
-        <f>BIN2DEC(_xlfn.CONCAT(C44:H44))</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>43</v>
       </c>
       <c r="J44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="2">
         <v>0</v>
@@ -5282,7 +5290,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N44" s="2">
         <v>0</v>
@@ -5303,13 +5311,13 @@
         <v>0</v>
       </c>
       <c r="T44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U44" s="2">
         <v>0</v>
       </c>
       <c r="V44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W44" s="2">
         <v>0</v>
@@ -5318,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="Y44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z44" s="2">
         <v>0</v>
@@ -5335,8 +5343,8 @@
       <c r="AD44" s="4"/>
       <c r="AE44" s="4"/>
       <c r="AF44" s="7" t="str">
-        <f>_xlfn.CONCAT(     BIN2HEX(_xlfn.CONCAT(AC44, AB44),1),     BIN2HEX(_xlfn.CONCAT(AA44,Z44,Y44, X44),1),     BIN2HEX(_xlfn.CONCAT(W44,V44,U44, T44),1),     BIN2HEX(_xlfn.CONCAT(S44,R44,Q44, P44),1),     BIN2HEX(_xlfn.CONCAT(O44,N44, M44, L44),1),     BIN2HEX(_xlfn.CONCAT(K44,J44,C44,D44),1),     BIN2HEX(_xlfn.CONCAT(E44,F44,G44,H44),1) )</f>
-        <v>0040200</v>
+        <f t="shared" si="5"/>
+        <v>021006B</v>
       </c>
     </row>
     <row r="45" spans="1:33" ht="14.25" customHeight="1">
@@ -5344,7 +5352,9 @@
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="B45" s="2"/>
+      <c r="B45" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="C45" s="2">
         <v>0</v>
       </c>
@@ -5364,7 +5374,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J45" s="2">
@@ -5377,7 +5387,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45" s="2">
         <v>0</v>
@@ -5404,7 +5414,7 @@
         <v>0</v>
       </c>
       <c r="V45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W45" s="2">
         <v>0</v>
@@ -5424,14 +5434,14 @@
       <c r="AB45" s="2">
         <v>0</v>
       </c>
-      <c r="AC45" s="2">
+      <c r="AC45" s="23">
         <v>0</v>
       </c>
       <c r="AD45" s="4"/>
       <c r="AE45" s="4"/>
       <c r="AF45" s="7" t="str">
-        <f>_xlfn.CONCAT(     BIN2HEX(_xlfn.CONCAT(AC45, AB45),1),     BIN2HEX(_xlfn.CONCAT(AA45,Z45,Y45, X45),1),     BIN2HEX(_xlfn.CONCAT(W45,V45,U45, T45),1),     BIN2HEX(_xlfn.CONCAT(S45,R45,Q45, P45),1),     BIN2HEX(_xlfn.CONCAT(O45,N45, M45, L45),1),     BIN2HEX(_xlfn.CONCAT(K45,J45,C45,D45),1),     BIN2HEX(_xlfn.CONCAT(E45,F45,G45,H45),1) )</f>
-        <v>0000000</v>
+        <f t="shared" si="5"/>
+        <v>0040200</v>
       </c>
     </row>
     <row r="46" spans="1:33" ht="14.25" customHeight="1">
@@ -5922,7 +5932,7 @@
     </row>
     <row r="55" spans="1:40" ht="14.25" customHeight="1">
       <c r="B55" s="21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C55" s="36" t="s">
         <v>40</v>
@@ -5947,7 +5957,7 @@
         <v>3</v>
       </c>
       <c r="P55" s="11" t="str">
-        <f t="shared" ref="P55:P70" si="4">DEC2HEX(O55,2)</f>
+        <f t="shared" ref="P55:P70" si="6">DEC2HEX(O55,2)</f>
         <v>03</v>
       </c>
       <c r="R55" s="31"/>
@@ -5976,10 +5986,10 @@
     </row>
     <row r="56" spans="1:40" ht="14.25" customHeight="1">
       <c r="B56" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" s="30" t="s">
         <v>106</v>
-      </c>
-      <c r="C56" s="30" t="s">
-        <v>108</v>
       </c>
       <c r="D56" s="30"/>
       <c r="E56" s="30"/>
@@ -6001,7 +6011,7 @@
         <v>6</v>
       </c>
       <c r="P56" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>06</v>
       </c>
       <c r="R56" s="31"/>
@@ -6039,7 +6049,7 @@
         <v>9</v>
       </c>
       <c r="P57" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>09</v>
       </c>
       <c r="R57" s="31"/>
@@ -6063,7 +6073,7 @@
         <v>12</v>
       </c>
       <c r="P58" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0C</v>
       </c>
       <c r="R58" s="31"/>
@@ -6087,7 +6097,7 @@
         <v>16</v>
       </c>
       <c r="P59" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
     </row>
@@ -6102,7 +6112,7 @@
         <v>20</v>
       </c>
       <c r="P60" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="R60" s="32" t="s">
@@ -6121,11 +6131,11 @@
         <v>60</v>
       </c>
       <c r="O61" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P61" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>1A</v>
+        <f t="shared" si="6"/>
+        <v>1B</v>
       </c>
       <c r="R61" s="32"/>
       <c r="S61" s="32"/>
@@ -6141,11 +6151,11 @@
         <v>61</v>
       </c>
       <c r="O62" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P62" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>1C</v>
+        <f t="shared" si="6"/>
+        <v>1D</v>
       </c>
       <c r="R62" s="32"/>
       <c r="S62" s="32"/>
@@ -6161,11 +6171,11 @@
         <v>62</v>
       </c>
       <c r="O63" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P63" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>1D</v>
+        <f t="shared" si="6"/>
+        <v>1E</v>
       </c>
       <c r="R63" s="32"/>
       <c r="S63" s="32"/>
@@ -6181,11 +6191,11 @@
         <v>63</v>
       </c>
       <c r="O64" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P64" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>21</v>
+        <f t="shared" si="6"/>
+        <v>22</v>
       </c>
       <c r="R64" s="32"/>
       <c r="S64" s="32"/>
@@ -6201,11 +6211,11 @@
         <v>64</v>
       </c>
       <c r="O65" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P65" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>24</v>
+        <f t="shared" si="6"/>
+        <v>25</v>
       </c>
       <c r="R65" s="32"/>
       <c r="S65" s="32"/>
@@ -6221,11 +6231,11 @@
         <v>56</v>
       </c>
       <c r="O66" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P66" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>28</v>
+        <f t="shared" si="6"/>
+        <v>29</v>
       </c>
     </row>
     <row r="67" spans="13:42" ht="14.25" customHeight="1">
@@ -6236,18 +6246,18 @@
         <v>56</v>
       </c>
       <c r="O67" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P67" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>28</v>
+        <f t="shared" si="6"/>
+        <v>29</v>
       </c>
     </row>
     <row r="68" spans="13:42" ht="14.25" customHeight="1">
       <c r="M68" s="12"/>
       <c r="N68" s="13"/>
       <c r="P68" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>00</v>
       </c>
     </row>
@@ -6255,7 +6265,7 @@
       <c r="M69" s="12"/>
       <c r="N69" s="13"/>
       <c r="P69" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>00</v>
       </c>
     </row>
@@ -6263,7 +6273,7 @@
       <c r="M70" s="12"/>
       <c r="N70" s="13"/>
       <c r="P70" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>00</v>
       </c>
     </row>
@@ -7224,26 +7234,34 @@
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="C2:H49">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:AB48">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+  <conditionalFormatting sqref="J43:AB48">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC2:AC41 AC45:AC48 J49:AC49">
-    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
+  <conditionalFormatting sqref="J2:AC42">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC45:AC48 J49:AC49">
+    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/projects/cs2200-project-1/microcode.xlsx
+++ b/projects/cs2200-project-1/microcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruh\Documents\GT\Fall 2023\CS_2200\projects\cs2200-project-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA2FDF9-87A0-489F-B994-7ABB4855684C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3C354C-ECB9-464D-97CD-EB278F16726F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -729,6 +729,8 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -777,13 +779,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1059,8 +1073,8 @@
   <dimension ref="A1:AP997"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O36" sqref="O36"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P55" sqref="P55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -1091,14 +1105,14 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
       <c r="I1" s="3" t="s">
         <v>3</v>
       </c>
@@ -2046,7 +2060,7 @@
       <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
       <c r="AF10" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>_xlfn.CONCAT(     BIN2HEX(_xlfn.CONCAT(AC10, AB10),1),     BIN2HEX(_xlfn.CONCAT(AA10,Z10,Y10, X10),1),     BIN2HEX(_xlfn.CONCAT(W10,V10,U10, T10),1),     BIN2HEX(_xlfn.CONCAT(S10,R10,Q10, P10),1),     BIN2HEX(_xlfn.CONCAT(O10,N10, M10, L10),1),     BIN2HEX(_xlfn.CONCAT(K10,J10,C10,D10),1),     BIN2HEX(_xlfn.CONCAT(E10,F10,G10,H10),1) )</f>
         <v>0840100</v>
       </c>
     </row>
@@ -3435,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="5">
-        <f t="shared" ref="I25:I45" si="4">BIN2DEC(_xlfn.CONCAT(C25:H25))</f>
+        <f t="shared" ref="I25:I40" si="4">BIN2DEC(_xlfn.CONCAT(C25:H25))</f>
         <v>0</v>
       </c>
       <c r="J25" s="2">
@@ -3501,7 +3515,7 @@
       <c r="AD25" s="4"/>
       <c r="AE25" s="4"/>
       <c r="AF25" s="7" t="str">
-        <f t="shared" ref="AF25:AF45" si="5">_xlfn.CONCAT(     BIN2HEX(_xlfn.CONCAT(AC25, AB25),1),     BIN2HEX(_xlfn.CONCAT(AA25,Z25,Y25, X25),1),     BIN2HEX(_xlfn.CONCAT(W25,V25,U25, T25),1),     BIN2HEX(_xlfn.CONCAT(S25,R25,Q25, P25),1),     BIN2HEX(_xlfn.CONCAT(O25,N25, M25, L25),1),     BIN2HEX(_xlfn.CONCAT(K25,J25,C25,D25),1),     BIN2HEX(_xlfn.CONCAT(E25,F25,G25,H25),1) )</f>
+        <f t="shared" ref="AF25:AF40" si="5">_xlfn.CONCAT(     BIN2HEX(_xlfn.CONCAT(AC25, AB25),1),     BIN2HEX(_xlfn.CONCAT(AA25,Z25,Y25, X25),1),     BIN2HEX(_xlfn.CONCAT(W25,V25,U25, T25),1),     BIN2HEX(_xlfn.CONCAT(S25,R25,Q25, P25),1),     BIN2HEX(_xlfn.CONCAT(O25,N25, M25, L25),1),     BIN2HEX(_xlfn.CONCAT(K25,J25,C25,D25),1),     BIN2HEX(_xlfn.CONCAT(E25,F25,G25,H25),1) )</f>
         <v>2000000</v>
       </c>
     </row>
@@ -4145,10 +4159,10 @@
         <v>0</v>
       </c>
       <c r="S32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U32" s="2">
         <v>0</v>
@@ -4181,7 +4195,7 @@
       <c r="AE32" s="4"/>
       <c r="AF32" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>001005F</v>
+        <v>000805F</v>
       </c>
     </row>
     <row r="33" spans="1:33" ht="14.25" customHeight="1">
@@ -4242,10 +4256,10 @@
         <v>0</v>
       </c>
       <c r="S33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U33" s="2">
         <v>0</v>
@@ -4278,10 +4292,10 @@
       <c r="AE33" s="4"/>
       <c r="AF33" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>0108060</v>
+        <v>0110060</v>
       </c>
     </row>
-    <row r="34" spans="1:33" s="41" customFormat="1" ht="14.25" customHeight="1">
+    <row r="34" spans="1:33" s="25" customFormat="1" ht="14.25" customHeight="1">
       <c r="A34" s="4">
         <f t="shared" si="3"/>
         <v>32</v>
@@ -4373,7 +4387,7 @@
       </c>
       <c r="AD34" s="4"/>
       <c r="AE34" s="4"/>
-      <c r="AF34" s="40" t="str">
+      <c r="AF34" s="24" t="str">
         <f t="shared" si="5"/>
         <v>0420121</v>
       </c>
@@ -4824,10 +4838,10 @@
         <v>0</v>
       </c>
       <c r="S39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U39" s="2">
         <v>0</v>
@@ -4860,7 +4874,7 @@
       <c r="AE39" s="4"/>
       <c r="AF39" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>0008066</v>
+        <v>0010066</v>
       </c>
       <c r="AG39" s="4" t="s">
         <v>21</v>
@@ -4924,10 +4938,10 @@
         <v>0</v>
       </c>
       <c r="S40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U40" s="2">
         <v>0</v>
@@ -4960,39 +4974,41 @@
       <c r="AE40" s="4"/>
       <c r="AF40" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>0110060</v>
+        <v>0108060</v>
       </c>
     </row>
-    <row r="41" spans="1:33" s="41" customFormat="1" ht="14.25" customHeight="1">
+    <row r="41" spans="1:33" s="25" customFormat="1" ht="14.25" customHeight="1">
       <c r="A41" s="4">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="B41" s="2"/>
+      <c r="B41" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="C41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" s="2">
         <v>0</v>
       </c>
       <c r="E41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" s="2">
         <v>0</v>
       </c>
       <c r="G41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" s="2">
         <v>0</v>
       </c>
       <c r="I41" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>BIN2DEC(_xlfn.CONCAT(C41:H41))</f>
+        <v>42</v>
       </c>
       <c r="J41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="2">
         <v>0</v>
@@ -5019,7 +5035,7 @@
         <v>0</v>
       </c>
       <c r="S41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T41" s="2">
         <v>0</v>
@@ -5034,7 +5050,7 @@
         <v>0</v>
       </c>
       <c r="X41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y41" s="2">
         <v>0</v>
@@ -5048,14 +5064,14 @@
       <c r="AB41" s="2">
         <v>0</v>
       </c>
-      <c r="AC41" s="2">
+      <c r="AC41" s="23">
         <v>0</v>
       </c>
       <c r="AD41" s="4"/>
       <c r="AE41" s="4"/>
-      <c r="AF41" s="40" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000</v>
+      <c r="AF41" s="24" t="str">
+        <f>_xlfn.CONCAT(     BIN2HEX(_xlfn.CONCAT(AC41, AB41),1),     BIN2HEX(_xlfn.CONCAT(AA41,Z41,Y41, X41),1),     BIN2HEX(_xlfn.CONCAT(W41,V41,U41, T41),1),     BIN2HEX(_xlfn.CONCAT(S41,R41,Q41, P41),1),     BIN2HEX(_xlfn.CONCAT(O41,N41, M41, L41),1),     BIN2HEX(_xlfn.CONCAT(K41,J41,C41,D41),1),     BIN2HEX(_xlfn.CONCAT(E41,F41,G41,H41),1) )</f>
+        <v>010806A</v>
       </c>
     </row>
     <row r="42" spans="1:33" ht="14.25" customHeight="1">
@@ -5063,31 +5079,33 @@
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="B42" s="2"/>
+      <c r="B42" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="C42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" s="2">
         <v>0</v>
       </c>
       <c r="E42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" s="2">
         <v>0</v>
       </c>
       <c r="G42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>BIN2DEC(_xlfn.CONCAT(C42:H42))</f>
+        <v>43</v>
       </c>
       <c r="J42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="2">
         <v>0</v>
@@ -5117,7 +5135,7 @@
         <v>0</v>
       </c>
       <c r="T42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U42" s="2">
         <v>0</v>
@@ -5132,7 +5150,7 @@
         <v>0</v>
       </c>
       <c r="Y42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z42" s="2">
         <v>0</v>
@@ -5143,14 +5161,14 @@
       <c r="AB42" s="2">
         <v>0</v>
       </c>
-      <c r="AC42" s="2">
+      <c r="AC42" s="23">
         <v>0</v>
       </c>
       <c r="AD42" s="4"/>
       <c r="AE42" s="4"/>
       <c r="AF42" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000</v>
+        <f>_xlfn.CONCAT(     BIN2HEX(_xlfn.CONCAT(AC42, AB42),1),     BIN2HEX(_xlfn.CONCAT(AA42,Z42,Y42, X42),1),     BIN2HEX(_xlfn.CONCAT(W42,V42,U42, T42),1),     BIN2HEX(_xlfn.CONCAT(S42,R42,Q42, P42),1),     BIN2HEX(_xlfn.CONCAT(O42,N42, M42, L42),1),     BIN2HEX(_xlfn.CONCAT(K42,J42,C42,D42),1),     BIN2HEX(_xlfn.CONCAT(E42,F42,G42,H42),1) )</f>
+        <v>021006B</v>
       </c>
     </row>
     <row r="43" spans="1:33" ht="14.25" customHeight="1">
@@ -5159,32 +5177,32 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" s="2">
         <v>0</v>
       </c>
       <c r="E43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" s="2">
         <v>0</v>
       </c>
       <c r="G43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
       </c>
       <c r="I43" s="5">
-        <f t="shared" si="4"/>
-        <v>42</v>
+        <f>BIN2DEC(_xlfn.CONCAT(C43:H43))</f>
+        <v>0</v>
       </c>
       <c r="J43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="2">
         <v>0</v>
@@ -5193,7 +5211,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43" s="2">
         <v>0</v>
@@ -5211,7 +5229,7 @@
         <v>0</v>
       </c>
       <c r="S43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T43" s="2">
         <v>0</v>
@@ -5220,13 +5238,13 @@
         <v>0</v>
       </c>
       <c r="V43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W43" s="2">
         <v>0</v>
       </c>
       <c r="X43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="2">
         <v>0</v>
@@ -5246,8 +5264,8 @@
       <c r="AD43" s="4"/>
       <c r="AE43" s="4"/>
       <c r="AF43" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>010806A</v>
+        <f>_xlfn.CONCAT(     BIN2HEX(_xlfn.CONCAT(AC43, AB43),1),     BIN2HEX(_xlfn.CONCAT(AA43,Z43,Y43, X43),1),     BIN2HEX(_xlfn.CONCAT(W43,V43,U43, T43),1),     BIN2HEX(_xlfn.CONCAT(S43,R43,Q43, P43),1),     BIN2HEX(_xlfn.CONCAT(O43,N43, M43, L43),1),     BIN2HEX(_xlfn.CONCAT(K43,J43,C43,D43),1),     BIN2HEX(_xlfn.CONCAT(E43,F43,G43,H43),1) )</f>
+        <v>0040200</v>
       </c>
     </row>
     <row r="44" spans="1:33" ht="14.25" customHeight="1">
@@ -5255,96 +5273,93 @@
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="C44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" s="2">
         <v>0</v>
       </c>
       <c r="E44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" s="2">
         <v>0</v>
       </c>
       <c r="G44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" s="5">
-        <f t="shared" si="4"/>
-        <v>43</v>
-      </c>
-      <c r="J44" s="2">
-        <v>1</v>
-      </c>
-      <c r="K44" s="2">
-        <v>0</v>
-      </c>
-      <c r="L44" s="2">
-        <v>0</v>
-      </c>
-      <c r="M44" s="2">
-        <v>0</v>
-      </c>
-      <c r="N44" s="2">
-        <v>0</v>
-      </c>
-      <c r="O44" s="2">
-        <v>0</v>
-      </c>
-      <c r="P44" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="2">
-        <v>0</v>
-      </c>
-      <c r="R44" s="2">
-        <v>0</v>
-      </c>
-      <c r="S44" s="2">
-        <v>0</v>
-      </c>
-      <c r="T44" s="2">
-        <v>1</v>
-      </c>
-      <c r="U44" s="2">
-        <v>0</v>
-      </c>
-      <c r="V44" s="2">
-        <v>0</v>
-      </c>
-      <c r="W44" s="2">
-        <v>0</v>
-      </c>
-      <c r="X44" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z44" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB44" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC44" s="23">
+        <f>BIN2DEC(_xlfn.CONCAT(C44:H44))</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="19">
+        <v>0</v>
+      </c>
+      <c r="K44" s="19">
+        <v>0</v>
+      </c>
+      <c r="L44" s="19">
+        <v>0</v>
+      </c>
+      <c r="M44" s="19">
+        <v>0</v>
+      </c>
+      <c r="N44" s="19">
+        <v>0</v>
+      </c>
+      <c r="O44" s="19">
+        <v>0</v>
+      </c>
+      <c r="P44" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="19">
+        <v>0</v>
+      </c>
+      <c r="R44" s="19">
+        <v>0</v>
+      </c>
+      <c r="S44" s="19">
+        <v>0</v>
+      </c>
+      <c r="T44" s="19">
+        <v>0</v>
+      </c>
+      <c r="U44" s="19">
+        <v>0</v>
+      </c>
+      <c r="V44" s="19">
+        <v>0</v>
+      </c>
+      <c r="W44" s="19">
+        <v>0</v>
+      </c>
+      <c r="X44" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="19">
         <v>0</v>
       </c>
       <c r="AD44" s="4"/>
       <c r="AE44" s="4"/>
       <c r="AF44" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>021006B</v>
+        <f>_xlfn.CONCAT(     BIN2HEX(_xlfn.CONCAT(AC44, AB44),1),     BIN2HEX(_xlfn.CONCAT(AA44,Z44,Y44, X44),1),     BIN2HEX(_xlfn.CONCAT(W44,V44,U44, T44),1),     BIN2HEX(_xlfn.CONCAT(S44,R44,Q44, P44),1),     BIN2HEX(_xlfn.CONCAT(O44,N44, M44, L44),1),     BIN2HEX(_xlfn.CONCAT(K44,J44,C44,D44),1),     BIN2HEX(_xlfn.CONCAT(E44,F44,G44,H44),1) )</f>
+        <v>0000000</v>
       </c>
     </row>
     <row r="45" spans="1:33" ht="14.25" customHeight="1">
@@ -5352,9 +5367,6 @@
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="C45" s="2">
         <v>0</v>
       </c>
@@ -5374,74 +5386,74 @@
         <v>0</v>
       </c>
       <c r="I45" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J45" s="2">
-        <v>0</v>
-      </c>
-      <c r="K45" s="2">
-        <v>0</v>
-      </c>
-      <c r="L45" s="2">
-        <v>0</v>
-      </c>
-      <c r="M45" s="2">
-        <v>1</v>
-      </c>
-      <c r="N45" s="2">
-        <v>0</v>
-      </c>
-      <c r="O45" s="2">
-        <v>0</v>
-      </c>
-      <c r="P45" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="2">
-        <v>0</v>
-      </c>
-      <c r="R45" s="2">
-        <v>0</v>
-      </c>
-      <c r="S45" s="2">
-        <v>0</v>
-      </c>
-      <c r="T45" s="2">
-        <v>0</v>
-      </c>
-      <c r="U45" s="2">
-        <v>0</v>
-      </c>
-      <c r="V45" s="2">
-        <v>1</v>
-      </c>
-      <c r="W45" s="2">
-        <v>0</v>
-      </c>
-      <c r="X45" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="23">
+        <f>BIN2DEC(_xlfn.CONCAT(C45:H45))</f>
+        <v>0</v>
+      </c>
+      <c r="J45" s="19">
+        <v>0</v>
+      </c>
+      <c r="K45" s="19">
+        <v>0</v>
+      </c>
+      <c r="L45" s="19">
+        <v>0</v>
+      </c>
+      <c r="M45" s="19">
+        <v>0</v>
+      </c>
+      <c r="N45" s="19">
+        <v>0</v>
+      </c>
+      <c r="O45" s="19">
+        <v>0</v>
+      </c>
+      <c r="P45" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="19">
+        <v>0</v>
+      </c>
+      <c r="R45" s="19">
+        <v>0</v>
+      </c>
+      <c r="S45" s="19">
+        <v>0</v>
+      </c>
+      <c r="T45" s="19">
+        <v>0</v>
+      </c>
+      <c r="U45" s="19">
+        <v>0</v>
+      </c>
+      <c r="V45" s="19">
+        <v>0</v>
+      </c>
+      <c r="W45" s="19">
+        <v>0</v>
+      </c>
+      <c r="X45" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="19">
         <v>0</v>
       </c>
       <c r="AD45" s="4"/>
       <c r="AE45" s="4"/>
       <c r="AF45" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>0040200</v>
+        <f>_xlfn.CONCAT(     BIN2HEX(_xlfn.CONCAT(AC45, AB45),1),     BIN2HEX(_xlfn.CONCAT(AA45,Z45,Y45, X45),1),     BIN2HEX(_xlfn.CONCAT(W45,V45,U45, T45),1),     BIN2HEX(_xlfn.CONCAT(S45,R45,Q45, P45),1),     BIN2HEX(_xlfn.CONCAT(O45,N45, M45, L45),1),     BIN2HEX(_xlfn.CONCAT(K45,J45,C45,D45),1),     BIN2HEX(_xlfn.CONCAT(E45,F45,G45,H45),1) )</f>
+        <v>0000000</v>
       </c>
     </row>
     <row r="46" spans="1:33" ht="14.25" customHeight="1">
@@ -5472,64 +5484,64 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J46" s="2">
-        <v>0</v>
-      </c>
-      <c r="K46" s="2">
-        <v>0</v>
-      </c>
-      <c r="L46" s="2">
-        <v>0</v>
-      </c>
-      <c r="M46" s="2">
-        <v>0</v>
-      </c>
-      <c r="N46" s="2">
-        <v>0</v>
-      </c>
-      <c r="O46" s="2">
-        <v>0</v>
-      </c>
-      <c r="P46" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="2">
-        <v>0</v>
-      </c>
-      <c r="R46" s="2">
-        <v>0</v>
-      </c>
-      <c r="S46" s="2">
-        <v>0</v>
-      </c>
-      <c r="T46" s="2">
-        <v>0</v>
-      </c>
-      <c r="U46" s="2">
-        <v>0</v>
-      </c>
-      <c r="V46" s="2">
-        <v>0</v>
-      </c>
-      <c r="W46" s="2">
-        <v>0</v>
-      </c>
-      <c r="X46" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z46" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA46" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB46" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC46" s="2">
+      <c r="J46" s="19">
+        <v>0</v>
+      </c>
+      <c r="K46" s="19">
+        <v>0</v>
+      </c>
+      <c r="L46" s="19">
+        <v>0</v>
+      </c>
+      <c r="M46" s="19">
+        <v>0</v>
+      </c>
+      <c r="N46" s="19">
+        <v>0</v>
+      </c>
+      <c r="O46" s="19">
+        <v>0</v>
+      </c>
+      <c r="P46" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="19">
+        <v>0</v>
+      </c>
+      <c r="R46" s="19">
+        <v>0</v>
+      </c>
+      <c r="S46" s="19">
+        <v>0</v>
+      </c>
+      <c r="T46" s="19">
+        <v>0</v>
+      </c>
+      <c r="U46" s="19">
+        <v>0</v>
+      </c>
+      <c r="V46" s="19">
+        <v>0</v>
+      </c>
+      <c r="W46" s="19">
+        <v>0</v>
+      </c>
+      <c r="X46" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="19">
         <v>0</v>
       </c>
       <c r="AD46" s="4"/>
@@ -5567,64 +5579,64 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J47" s="2">
-        <v>0</v>
-      </c>
-      <c r="K47" s="2">
-        <v>0</v>
-      </c>
-      <c r="L47" s="2">
-        <v>0</v>
-      </c>
-      <c r="M47" s="2">
-        <v>0</v>
-      </c>
-      <c r="N47" s="2">
-        <v>0</v>
-      </c>
-      <c r="O47" s="2">
-        <v>0</v>
-      </c>
-      <c r="P47" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="2">
-        <v>0</v>
-      </c>
-      <c r="R47" s="2">
-        <v>0</v>
-      </c>
-      <c r="S47" s="2">
-        <v>0</v>
-      </c>
-      <c r="T47" s="2">
-        <v>0</v>
-      </c>
-      <c r="U47" s="2">
-        <v>0</v>
-      </c>
-      <c r="V47" s="2">
-        <v>0</v>
-      </c>
-      <c r="W47" s="2">
-        <v>0</v>
-      </c>
-      <c r="X47" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA47" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB47" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC47" s="2">
+      <c r="J47" s="19">
+        <v>0</v>
+      </c>
+      <c r="K47" s="19">
+        <v>0</v>
+      </c>
+      <c r="L47" s="19">
+        <v>0</v>
+      </c>
+      <c r="M47" s="19">
+        <v>0</v>
+      </c>
+      <c r="N47" s="19">
+        <v>0</v>
+      </c>
+      <c r="O47" s="19">
+        <v>0</v>
+      </c>
+      <c r="P47" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="19">
+        <v>0</v>
+      </c>
+      <c r="R47" s="19">
+        <v>0</v>
+      </c>
+      <c r="S47" s="19">
+        <v>0</v>
+      </c>
+      <c r="T47" s="19">
+        <v>0</v>
+      </c>
+      <c r="U47" s="19">
+        <v>0</v>
+      </c>
+      <c r="V47" s="19">
+        <v>0</v>
+      </c>
+      <c r="W47" s="19">
+        <v>0</v>
+      </c>
+      <c r="X47" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="19">
         <v>0</v>
       </c>
       <c r="AD47" s="4"/>
@@ -5662,64 +5674,64 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J48" s="2">
-        <v>0</v>
-      </c>
-      <c r="K48" s="2">
-        <v>0</v>
-      </c>
-      <c r="L48" s="2">
-        <v>0</v>
-      </c>
-      <c r="M48" s="2">
-        <v>0</v>
-      </c>
-      <c r="N48" s="2">
-        <v>0</v>
-      </c>
-      <c r="O48" s="2">
-        <v>0</v>
-      </c>
-      <c r="P48" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="2">
-        <v>0</v>
-      </c>
-      <c r="R48" s="2">
-        <v>0</v>
-      </c>
-      <c r="S48" s="2">
-        <v>0</v>
-      </c>
-      <c r="T48" s="2">
-        <v>0</v>
-      </c>
-      <c r="U48" s="2">
-        <v>0</v>
-      </c>
-      <c r="V48" s="2">
-        <v>0</v>
-      </c>
-      <c r="W48" s="2">
-        <v>0</v>
-      </c>
-      <c r="X48" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y48" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z48" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA48" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB48" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC48" s="2">
+      <c r="J48" s="19">
+        <v>0</v>
+      </c>
+      <c r="K48" s="19">
+        <v>0</v>
+      </c>
+      <c r="L48" s="19">
+        <v>0</v>
+      </c>
+      <c r="M48" s="19">
+        <v>0</v>
+      </c>
+      <c r="N48" s="19">
+        <v>0</v>
+      </c>
+      <c r="O48" s="19">
+        <v>0</v>
+      </c>
+      <c r="P48" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="19">
+        <v>0</v>
+      </c>
+      <c r="R48" s="19">
+        <v>0</v>
+      </c>
+      <c r="S48" s="19">
+        <v>0</v>
+      </c>
+      <c r="T48" s="19">
+        <v>0</v>
+      </c>
+      <c r="U48" s="19">
+        <v>0</v>
+      </c>
+      <c r="V48" s="19">
+        <v>0</v>
+      </c>
+      <c r="W48" s="19">
+        <v>0</v>
+      </c>
+      <c r="X48" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="19">
         <v>0</v>
       </c>
       <c r="AD48" s="4"/>
@@ -5760,61 +5772,61 @@
       <c r="J49" s="19">
         <v>0</v>
       </c>
-      <c r="K49" s="2">
-        <v>0</v>
-      </c>
-      <c r="L49" s="2">
-        <v>0</v>
-      </c>
-      <c r="M49" s="2">
-        <v>0</v>
-      </c>
-      <c r="N49" s="2">
-        <v>0</v>
-      </c>
-      <c r="O49" s="2">
-        <v>0</v>
-      </c>
-      <c r="P49" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="2">
-        <v>0</v>
-      </c>
-      <c r="R49" s="2">
-        <v>0</v>
-      </c>
-      <c r="S49" s="2">
-        <v>0</v>
-      </c>
-      <c r="T49" s="2">
-        <v>0</v>
-      </c>
-      <c r="U49" s="2">
-        <v>0</v>
-      </c>
-      <c r="V49" s="2">
-        <v>0</v>
-      </c>
-      <c r="W49" s="2">
-        <v>0</v>
-      </c>
-      <c r="X49" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y49" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA49" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB49" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC49" s="2">
+      <c r="K49" s="19">
+        <v>0</v>
+      </c>
+      <c r="L49" s="19">
+        <v>0</v>
+      </c>
+      <c r="M49" s="19">
+        <v>0</v>
+      </c>
+      <c r="N49" s="19">
+        <v>0</v>
+      </c>
+      <c r="O49" s="19">
+        <v>0</v>
+      </c>
+      <c r="P49" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="19">
+        <v>0</v>
+      </c>
+      <c r="R49" s="19">
+        <v>0</v>
+      </c>
+      <c r="S49" s="19">
+        <v>0</v>
+      </c>
+      <c r="T49" s="19">
+        <v>0</v>
+      </c>
+      <c r="U49" s="19">
+        <v>0</v>
+      </c>
+      <c r="V49" s="19">
+        <v>0</v>
+      </c>
+      <c r="W49" s="19">
+        <v>0</v>
+      </c>
+      <c r="X49" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="19">
         <v>0</v>
       </c>
       <c r="AD49" s="4"/>
@@ -5833,30 +5845,30 @@
       <c r="AE52" s="4"/>
     </row>
     <row r="53" spans="1:40" ht="14.25" customHeight="1">
-      <c r="B53" s="34" t="s">
+      <c r="B53" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="34"/>
-      <c r="M53" s="37" t="s">
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="M53" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="N53" s="38"/>
-      <c r="O53" s="38"/>
-      <c r="P53" s="39"/>
-      <c r="R53" s="31" t="s">
+      <c r="N53" s="40"/>
+      <c r="O53" s="40"/>
+      <c r="P53" s="41"/>
+      <c r="R53" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="S53" s="31"/>
-      <c r="T53" s="31"/>
-      <c r="U53" s="31"/>
-      <c r="V53" s="31"/>
+      <c r="S53" s="33"/>
+      <c r="T53" s="33"/>
+      <c r="U53" s="33"/>
+      <c r="V53" s="33"/>
       <c r="W53" s="8"/>
       <c r="X53" s="8"/>
       <c r="Y53" s="8"/>
@@ -5880,14 +5892,14 @@
       <c r="B54" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C54" s="35" t="s">
+      <c r="C54" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="35"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="37"/>
       <c r="I54" s="1" t="s">
         <v>20</v>
       </c>
@@ -5906,11 +5918,11 @@
       <c r="P54" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="R54" s="31"/>
-      <c r="S54" s="31"/>
-      <c r="T54" s="31"/>
-      <c r="U54" s="31"/>
-      <c r="V54" s="31"/>
+      <c r="R54" s="33"/>
+      <c r="S54" s="33"/>
+      <c r="T54" s="33"/>
+      <c r="U54" s="33"/>
+      <c r="V54" s="33"/>
       <c r="W54" s="8"/>
       <c r="X54" s="8"/>
       <c r="Y54" s="8"/>
@@ -5934,14 +5946,14 @@
       <c r="B55" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="C55" s="36" t="s">
+      <c r="C55" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="D55" s="36"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="36"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
       <c r="I55" s="2"/>
       <c r="J55" s="11" t="str">
         <f>DEC2HEX(C55)</f>
@@ -5960,11 +5972,11 @@
         <f t="shared" ref="P55:P70" si="6">DEC2HEX(O55,2)</f>
         <v>03</v>
       </c>
-      <c r="R55" s="31"/>
-      <c r="S55" s="31"/>
-      <c r="T55" s="31"/>
-      <c r="U55" s="31"/>
-      <c r="V55" s="31"/>
+      <c r="R55" s="33"/>
+      <c r="S55" s="33"/>
+      <c r="T55" s="33"/>
+      <c r="U55" s="33"/>
+      <c r="V55" s="33"/>
       <c r="W55" s="8"/>
       <c r="X55" s="8"/>
       <c r="Y55" s="8"/>
@@ -5988,14 +6000,14 @@
       <c r="B56" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="C56" s="30" t="s">
+      <c r="C56" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="D56" s="30"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="30"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
       <c r="I56" s="14"/>
       <c r="J56" s="15" t="str">
         <f>DEC2HEX(C56)</f>
@@ -6014,11 +6026,11 @@
         <f t="shared" si="6"/>
         <v>06</v>
       </c>
-      <c r="R56" s="31"/>
-      <c r="S56" s="31"/>
-      <c r="T56" s="31"/>
-      <c r="U56" s="31"/>
-      <c r="V56" s="31"/>
+      <c r="R56" s="33"/>
+      <c r="S56" s="33"/>
+      <c r="T56" s="33"/>
+      <c r="U56" s="33"/>
+      <c r="V56" s="33"/>
       <c r="W56" s="8"/>
       <c r="X56" s="8"/>
       <c r="Y56" s="8"/>
@@ -6052,11 +6064,11 @@
         <f t="shared" si="6"/>
         <v>09</v>
       </c>
-      <c r="R57" s="31"/>
-      <c r="S57" s="31"/>
-      <c r="T57" s="31"/>
-      <c r="U57" s="31"/>
-      <c r="V57" s="31"/>
+      <c r="R57" s="33"/>
+      <c r="S57" s="33"/>
+      <c r="T57" s="33"/>
+      <c r="U57" s="33"/>
+      <c r="V57" s="33"/>
       <c r="AH57" s="2"/>
       <c r="AI57" s="2"/>
       <c r="AJ57" s="2"/>
@@ -6076,11 +6088,11 @@
         <f t="shared" si="6"/>
         <v>0C</v>
       </c>
-      <c r="R58" s="31"/>
-      <c r="S58" s="31"/>
-      <c r="T58" s="31"/>
-      <c r="U58" s="31"/>
-      <c r="V58" s="31"/>
+      <c r="R58" s="33"/>
+      <c r="S58" s="33"/>
+      <c r="T58" s="33"/>
+      <c r="U58" s="33"/>
+      <c r="V58" s="33"/>
       <c r="AI58" s="2"/>
       <c r="AJ58" s="2"/>
       <c r="AK58" s="2"/>
@@ -6115,13 +6127,13 @@
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="R60" s="32" t="s">
+      <c r="R60" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="S60" s="32"/>
-      <c r="T60" s="32"/>
-      <c r="U60" s="32"/>
-      <c r="V60" s="32"/>
+      <c r="S60" s="34"/>
+      <c r="T60" s="34"/>
+      <c r="U60" s="34"/>
+      <c r="V60" s="34"/>
     </row>
     <row r="61" spans="1:40" ht="14.25" customHeight="1">
       <c r="M61" s="12" t="s">
@@ -6137,11 +6149,11 @@
         <f t="shared" si="6"/>
         <v>1B</v>
       </c>
-      <c r="R61" s="32"/>
-      <c r="S61" s="32"/>
-      <c r="T61" s="32"/>
-      <c r="U61" s="32"/>
-      <c r="V61" s="32"/>
+      <c r="R61" s="34"/>
+      <c r="S61" s="34"/>
+      <c r="T61" s="34"/>
+      <c r="U61" s="34"/>
+      <c r="V61" s="34"/>
     </row>
     <row r="62" spans="1:40" ht="15" customHeight="1">
       <c r="M62" s="12" t="s">
@@ -6157,11 +6169,11 @@
         <f t="shared" si="6"/>
         <v>1D</v>
       </c>
-      <c r="R62" s="32"/>
-      <c r="S62" s="32"/>
-      <c r="T62" s="32"/>
-      <c r="U62" s="32"/>
-      <c r="V62" s="32"/>
+      <c r="R62" s="34"/>
+      <c r="S62" s="34"/>
+      <c r="T62" s="34"/>
+      <c r="U62" s="34"/>
+      <c r="V62" s="34"/>
     </row>
     <row r="63" spans="1:40" ht="14.25" customHeight="1">
       <c r="M63" s="12" t="s">
@@ -6177,11 +6189,11 @@
         <f t="shared" si="6"/>
         <v>1E</v>
       </c>
-      <c r="R63" s="32"/>
-      <c r="S63" s="32"/>
-      <c r="T63" s="32"/>
-      <c r="U63" s="32"/>
-      <c r="V63" s="32"/>
+      <c r="R63" s="34"/>
+      <c r="S63" s="34"/>
+      <c r="T63" s="34"/>
+      <c r="U63" s="34"/>
+      <c r="V63" s="34"/>
     </row>
     <row r="64" spans="1:40" ht="14.25" customHeight="1">
       <c r="M64" s="12" t="s">
@@ -6197,11 +6209,11 @@
         <f t="shared" si="6"/>
         <v>22</v>
       </c>
-      <c r="R64" s="32"/>
-      <c r="S64" s="32"/>
-      <c r="T64" s="32"/>
-      <c r="U64" s="32"/>
-      <c r="V64" s="32"/>
+      <c r="R64" s="34"/>
+      <c r="S64" s="34"/>
+      <c r="T64" s="34"/>
+      <c r="U64" s="34"/>
+      <c r="V64" s="34"/>
     </row>
     <row r="65" spans="13:42" ht="14.25" customHeight="1">
       <c r="M65" s="12" t="s">
@@ -6217,11 +6229,11 @@
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="R65" s="32"/>
-      <c r="S65" s="32"/>
-      <c r="T65" s="32"/>
-      <c r="U65" s="32"/>
-      <c r="V65" s="32"/>
+      <c r="R65" s="34"/>
+      <c r="S65" s="34"/>
+      <c r="T65" s="34"/>
+      <c r="U65" s="34"/>
+      <c r="V65" s="34"/>
     </row>
     <row r="66" spans="13:42" ht="14.25" customHeight="1">
       <c r="M66" s="12" t="s">
@@ -6231,11 +6243,11 @@
         <v>56</v>
       </c>
       <c r="O66" s="4">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P66" s="11" t="str">
         <f t="shared" si="6"/>
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" spans="13:42" ht="14.25" customHeight="1">
@@ -6246,11 +6258,11 @@
         <v>56</v>
       </c>
       <c r="O67" s="4">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P67" s="11" t="str">
         <f t="shared" si="6"/>
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="13:42" ht="14.25" customHeight="1">
@@ -6282,19 +6294,19 @@
       <c r="P71" s="16"/>
     </row>
     <row r="72" spans="13:42" ht="14.25" customHeight="1">
-      <c r="M72" s="24" t="s">
+      <c r="M72" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="N72" s="25"/>
-      <c r="O72" s="25"/>
-      <c r="P72" s="26"/>
+      <c r="N72" s="27"/>
+      <c r="O72" s="27"/>
+      <c r="P72" s="28"/>
       <c r="AP72" s="2"/>
     </row>
     <row r="73" spans="13:42" ht="14.25" customHeight="1">
-      <c r="M73" s="27"/>
-      <c r="N73" s="28"/>
-      <c r="O73" s="28"/>
-      <c r="P73" s="29"/>
+      <c r="M73" s="29"/>
+      <c r="N73" s="30"/>
+      <c r="O73" s="30"/>
+      <c r="P73" s="31"/>
     </row>
     <row r="74" spans="13:42" ht="14.25" customHeight="1"/>
     <row r="75" spans="13:42" ht="14.25" customHeight="1"/>
@@ -7234,34 +7246,42 @@
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="C2:H49">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J43:AB48">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+  <conditionalFormatting sqref="J41:AB43">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:AC42">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC45:AC48 J49:AC49">
-    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
+  <conditionalFormatting sqref="J44:AC49">
+    <cfRule type="cellIs" dxfId="3" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="14" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC43">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
